--- a/Tables/Visit.xlsx
+++ b/Tables/Visit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Вячеслав\Desktop\Stomatology\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DF4316-E3A7-47D2-8EBA-CA6E06FEE946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBE5166-3A4B-417D-B8E1-2692BA3F83FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2020" yWindow="0" windowWidth="15730" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,6 +378,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -462,11 +463,11 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B16" si="2">B3-2</f>
+        <f t="shared" ref="B4:B14" si="2">B3-2</f>
         <v>21</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C13" si="3">C3-1</f>
+        <f t="shared" ref="C4:C12" si="3">C3-1</f>
         <v>9</v>
       </c>
       <c r="D4">
